--- a/Check-list.xlsx
+++ b/Check-list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinode\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Data\Testing example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA8D50E-34FD-444D-9A31-424182C76249}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BC8ED1-47D7-43AC-B2A2-E823301BC925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{DC35558A-5EEC-4515-9C26-172962F20927}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC35558A-5EEC-4515-9C26-172962F20927}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +158,36 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -390,7 +420,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -415,6 +445,16 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -442,16 +482,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -460,6 +495,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -768,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA46A3B-88F1-4A2C-8EDF-A7A655497953}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:AB40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="AA26" sqref="AA26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,39 +820,47 @@
     <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="7" width="9.42578125" customWidth="1"/>
-    <col min="11" max="12" width="9.5703125" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" customWidth="1"/>
-    <col min="18" max="18" width="9" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" customWidth="1"/>
-    <col min="20" max="20" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="3" customWidth="1"/>
+    <col min="7" max="8" width="3.140625" customWidth="1"/>
+    <col min="9" max="9" width="3" customWidth="1"/>
+    <col min="10" max="10" width="3.140625" customWidth="1"/>
+    <col min="11" max="11" width="3" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" customWidth="1"/>
+    <col min="13" max="13" width="3" customWidth="1"/>
+    <col min="14" max="15" width="3.28515625" customWidth="1"/>
+    <col min="16" max="19" width="3" customWidth="1"/>
+    <col min="20" max="20" width="3.140625" customWidth="1"/>
+    <col min="21" max="21" width="3.28515625" customWidth="1"/>
+    <col min="22" max="22" width="3" customWidth="1"/>
+    <col min="23" max="23" width="2.85546875" customWidth="1"/>
+    <col min="24" max="24" width="3" customWidth="1"/>
+    <col min="25" max="26" width="3.28515625" customWidth="1"/>
+    <col min="27" max="28" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="17"/>
       <c r="C1" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="11">
         <v>44431</v>
       </c>
@@ -829,11 +877,11 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -842,7 +890,7 @@
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -853,7 +901,7 @@
       <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -864,7 +912,7 @@
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -875,7 +923,7 @@
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -886,7 +934,7 @@
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -897,7 +945,7 @@
       <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -908,7 +956,7 @@
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -919,7 +967,7 @@
       <c r="B13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -930,7 +978,7 @@
       <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -941,121 +989,464 @@
       <c r="B15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-    </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-    </row>
-    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="K19" s="28"/>
+      <c r="Q19" s="28"/>
+    </row>
+    <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="28"/>
+    </row>
+    <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="28"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="28"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="28"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="28"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="28"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="28"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="28"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="28"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="28"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G30" s="28"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="28"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="F31" s="28"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="28"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="F32" s="28"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="28"/>
+    </row>
+    <row r="33" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="F33" s="28"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="28"/>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="28"/>
+    </row>
+    <row r="34" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="F34" s="28"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="29"/>
+      <c r="AB34" s="28"/>
+    </row>
+    <row r="35" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="F35" s="28"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="28"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="28"/>
+    </row>
+    <row r="36" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="F36" s="28"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="28"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="29"/>
+      <c r="AB36" s="28"/>
+    </row>
+    <row r="37" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="F37" s="28"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="28"/>
+    </row>
+    <row r="38" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="G38" s="28"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="27"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="28"/>
+    </row>
+    <row r="39" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="28"/>
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="28"/>
+    </row>
+    <row r="40" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
